--- a/output/FreqDiscovCitptile0.9alpha0.05power0.8N1000/FreqDiscovCitptile0.9alpha0.05power0.8N1000N1000.xlsx
+++ b/output/FreqDiscovCitptile0.9alpha0.05power0.8N1000/FreqDiscovCitptile0.9alpha0.05power0.8N1000N1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lewan\Documents\MATLAB\Modeling\Replication market\output\FreqDiscovCitptile0.9alpha0.05power0.8N1000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19C2FAD-A83D-4AEE-BADF-40D7D3036C76}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B9A767-AA7C-47F1-8BD4-8C9519B7C121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3105" windowWidth="21600" windowHeight="12735" xr2:uid="{E76802E9-44A7-47C1-A106-94E9337272EF}"/>
+    <workbookView xWindow="24" yWindow="0" windowWidth="19188" windowHeight="10800" xr2:uid="{1CE622FD-2907-4A8B-8DD0-0D6C0F2B4F6A}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="4" r:id="rId1"/>
@@ -466,29 +466,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6319CBD3-1E83-4F1F-8B72-A8B3BF2B618C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F491AB-B702-42E8-84C2-435946826B0F}">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -543,46 +543,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.0108350987414237E-2</v>
+        <v>4.8376558118706781E-2</v>
       </c>
       <c r="D2">
-        <v>0.81074621075355968</v>
+        <v>0.80959739145590204</v>
       </c>
       <c r="E2">
-        <v>9.0350000000000001</v>
+        <v>8.9789999999999992</v>
       </c>
       <c r="F2">
-        <v>111.92</v>
+        <v>111.66800000000001</v>
       </c>
       <c r="G2">
-        <v>6.1779999999999999</v>
+        <v>6.0970000000000004</v>
       </c>
       <c r="H2">
-        <v>0.82499999999999996</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="I2">
-        <v>0.83399999999999996</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="J2">
-        <v>4.9412731970871537E-2</v>
+        <v>4.4323175144747755E-2</v>
       </c>
       <c r="K2">
-        <v>0.80731867634775556</v>
+        <v>0.80224523489882749</v>
       </c>
       <c r="L2">
-        <v>11.92</v>
+        <v>11.667999999999999</v>
       </c>
       <c r="M2">
-        <v>111.92</v>
+        <v>111.66800000000001</v>
       </c>
       <c r="N2">
-        <v>0.88900000000000001</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="O2">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -590,46 +590,46 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.0977194751878778E-2</v>
+        <v>5.1136708251614676E-2</v>
       </c>
       <c r="D3">
-        <v>0.81405198253635858</v>
+        <v>0.79985998914888901</v>
       </c>
       <c r="E3">
-        <v>9.02</v>
+        <v>9.0069999999999997</v>
       </c>
       <c r="F3">
-        <v>111.979</v>
+        <v>111.837</v>
       </c>
       <c r="G3">
-        <v>6.1470000000000002</v>
+        <v>5.992</v>
       </c>
       <c r="H3">
-        <v>0.60299999999999998</v>
+        <v>0.625</v>
       </c>
       <c r="I3">
-        <v>0.58099999999999996</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="J3">
-        <v>5.1440329218106998E-2</v>
+        <v>3.5676251331203404E-2</v>
       </c>
       <c r="K3">
-        <v>0.82182037371910821</v>
+        <v>0.8158673771462408</v>
       </c>
       <c r="L3">
-        <v>11.978999999999999</v>
+        <v>11.837</v>
       </c>
       <c r="M3">
-        <v>101.245</v>
+        <v>101.291</v>
       </c>
       <c r="N3">
-        <v>0.69299999999999995</v>
+        <v>0.71</v>
       </c>
       <c r="O3">
-        <v>0.65300000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -637,46 +637,46 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>4.9414228160674936E-2</v>
+        <v>4.991776656073265E-2</v>
       </c>
       <c r="D4">
-        <v>0.80865080483989316</v>
+        <v>0.81911789472983076</v>
       </c>
       <c r="E4">
-        <v>8.9789999999999992</v>
+        <v>9.0920000000000005</v>
       </c>
       <c r="F4">
-        <v>111.715</v>
+        <v>111.973</v>
       </c>
       <c r="G4">
-        <v>6.0919999999999996</v>
+        <v>6.1840000000000002</v>
       </c>
       <c r="H4">
-        <v>0.88800000000000001</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="I4">
-        <v>0.90200000000000002</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="J4">
-        <v>4.9948638931689777E-2</v>
+        <v>4.536187563710499E-2</v>
       </c>
       <c r="K4">
-        <v>0.79858156028368821</v>
+        <v>0.80130769230769272</v>
       </c>
       <c r="L4">
-        <v>11.715</v>
+        <v>11.973000000000001</v>
       </c>
       <c r="M4">
-        <v>101.699</v>
+        <v>101.68600000000001</v>
       </c>
       <c r="N4">
-        <v>0.91300000000000003</v>
+        <v>0.89</v>
       </c>
       <c r="O4">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.85399999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -684,46 +684,46 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>5.0860863303085507E-2</v>
+        <v>5.0483126586990633E-2</v>
       </c>
       <c r="D5">
-        <v>0.80515428457408467</v>
+        <v>0.81104865996154474</v>
       </c>
       <c r="E5">
-        <v>8.9239999999999995</v>
+        <v>9.2070000000000007</v>
       </c>
       <c r="F5">
-        <v>111.8</v>
+        <v>112.06</v>
       </c>
       <c r="G5">
-        <v>6.04</v>
+        <v>6.3280000000000003</v>
       </c>
       <c r="H5">
-        <v>1.3819999999999999</v>
+        <v>1.462</v>
       </c>
       <c r="I5">
-        <v>1.3049999999999999</v>
+        <v>1.37</v>
       </c>
       <c r="J5">
-        <v>4.4352236053480862E-2</v>
+        <v>5.5095839177185607E-2</v>
       </c>
       <c r="K5">
-        <v>0.81161740558292317</v>
+        <v>0.80436123601983156</v>
       </c>
       <c r="L5">
-        <v>11.8</v>
+        <v>12.06</v>
       </c>
       <c r="M5">
-        <v>102.767</v>
+        <v>102.858</v>
       </c>
       <c r="N5">
-        <v>1.409</v>
+        <v>1.5129999999999999</v>
       </c>
       <c r="O5">
-        <v>1.355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.4530000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -731,46 +731,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.1800921091968645E-2</v>
+        <v>7.5804739109655184E-2</v>
       </c>
       <c r="D6">
-        <v>0.87037141377667626</v>
+        <v>0.89035864973675871</v>
       </c>
       <c r="E6">
-        <v>8.9659999999999993</v>
+        <v>9.07</v>
       </c>
       <c r="F6">
-        <v>114.322</v>
+        <v>114.99299999999999</v>
       </c>
       <c r="G6">
-        <v>7.1609999999999996</v>
+        <v>7.734</v>
       </c>
       <c r="H6">
-        <v>0.93300000000000005</v>
+        <v>1.159</v>
       </c>
       <c r="I6">
-        <v>0.96599999999999997</v>
+        <v>1.014</v>
       </c>
       <c r="J6">
-        <v>7.036504051504068E-2</v>
+        <v>7.6715936034573551E-2</v>
       </c>
       <c r="K6">
-        <v>0.87191162950986645</v>
+        <v>0.88986117765518147</v>
       </c>
       <c r="L6">
-        <v>14.321999999999999</v>
+        <v>14.993</v>
       </c>
       <c r="M6">
-        <v>114.322</v>
+        <v>114.99299999999999</v>
       </c>
       <c r="N6">
-        <v>1.073</v>
+        <v>1.099</v>
       </c>
       <c r="O6">
-        <v>0.96899999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.0329999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -778,46 +778,46 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>7.0711708600982498E-2</v>
+        <v>7.7643126640239882E-2</v>
       </c>
       <c r="D7">
-        <v>0.86885493856856866</v>
+        <v>0.88729770461295454</v>
       </c>
       <c r="E7">
-        <v>8.8390000000000004</v>
+        <v>8.9339999999999993</v>
       </c>
       <c r="F7">
-        <v>114.09</v>
+        <v>114.986</v>
       </c>
       <c r="G7">
-        <v>6.9930000000000003</v>
+        <v>7.62</v>
       </c>
       <c r="H7">
-        <v>0.74199999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="I7">
-        <v>0.629</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="J7">
-        <v>5.6764981273408247E-2</v>
+        <v>7.6040172166427542E-2</v>
       </c>
       <c r="K7">
-        <v>0.87792127921279217</v>
+        <v>0.86193045563549164</v>
       </c>
       <c r="L7">
-        <v>14.09</v>
+        <v>14.986000000000001</v>
       </c>
       <c r="M7">
-        <v>101.443</v>
+        <v>101.491</v>
       </c>
       <c r="N7">
-        <v>0.754</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="O7">
-        <v>0.69799999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.73399999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -825,46 +825,46 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>7.2378479076346106E-2</v>
+        <v>7.7663436745098249E-2</v>
       </c>
       <c r="D8">
-        <v>0.86746773965665813</v>
+        <v>0.89424614063304719</v>
       </c>
       <c r="E8">
-        <v>9.0090000000000003</v>
+        <v>9.0429999999999993</v>
       </c>
       <c r="F8">
-        <v>114.5</v>
+        <v>115.164</v>
       </c>
       <c r="G8">
-        <v>7.306</v>
+        <v>7.7279999999999998</v>
       </c>
       <c r="H8">
-        <v>1.0189999999999999</v>
+        <v>1.091</v>
       </c>
       <c r="I8">
-        <v>0.96899999999999997</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="J8">
-        <v>8.6593204775022983E-2</v>
+        <v>7.680389552899515E-2</v>
       </c>
       <c r="K8">
-        <v>0.87219764011799428</v>
+        <v>0.87846414728682154</v>
       </c>
       <c r="L8">
-        <v>14.5</v>
+        <v>15.164</v>
       </c>
       <c r="M8">
-        <v>102.12</v>
+        <v>102.209</v>
       </c>
       <c r="N8">
-        <v>1.1200000000000001</v>
+        <v>1.117</v>
       </c>
       <c r="O8">
-        <v>1.0309999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.0269999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -872,46 +872,46 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>6.9429920306674497E-2</v>
+        <v>7.7433678651844862E-2</v>
       </c>
       <c r="D9">
-        <v>0.86454935298445312</v>
+        <v>0.87978474453308086</v>
       </c>
       <c r="E9">
-        <v>9.0069999999999997</v>
+        <v>8.9689999999999994</v>
       </c>
       <c r="F9">
-        <v>114.14</v>
+        <v>114.774</v>
       </c>
       <c r="G9">
-        <v>7.27</v>
+        <v>7.3470000000000004</v>
       </c>
       <c r="H9">
-        <v>1.7949999999999999</v>
+        <v>1.821</v>
       </c>
       <c r="I9">
-        <v>1.569</v>
+        <v>1.625</v>
       </c>
       <c r="J9">
-        <v>7.3636736367363703E-2</v>
+        <v>8.1760004471272088E-2</v>
       </c>
       <c r="K9">
-        <v>0.8704058901811027</v>
+        <v>0.87442950285248544</v>
       </c>
       <c r="L9">
-        <v>14.14</v>
+        <v>14.773999999999999</v>
       </c>
       <c r="M9">
-        <v>103.337</v>
+        <v>103.5</v>
       </c>
       <c r="N9">
-        <v>1.7789999999999999</v>
+        <v>1.778</v>
       </c>
       <c r="O9">
-        <v>1.665</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -919,46 +919,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.9987718582262741E-2</v>
+        <v>0.1053050411478926</v>
       </c>
       <c r="D10">
-        <v>0.95364901511027678</v>
+        <v>0.96932930569196485</v>
       </c>
       <c r="E10">
-        <v>8.9589999999999996</v>
+        <v>9.0950000000000006</v>
       </c>
       <c r="F10">
-        <v>117.655</v>
+        <v>118.435</v>
       </c>
       <c r="G10">
-        <v>9.0980000000000008</v>
+        <v>9.6379999999999999</v>
       </c>
       <c r="H10">
-        <v>1.302</v>
+        <v>1.4670000000000001</v>
       </c>
       <c r="I10">
-        <v>1.202</v>
+        <v>1.1919999999999999</v>
       </c>
       <c r="J10">
-        <v>9.5673043751913975E-2</v>
+        <v>0.10544566209504333</v>
       </c>
       <c r="K10">
-        <v>0.95248610050080662</v>
+        <v>0.96577988751191379</v>
       </c>
       <c r="L10">
-        <v>17.655000000000001</v>
+        <v>18.434999999999999</v>
       </c>
       <c r="M10">
-        <v>117.655</v>
+        <v>118.435</v>
       </c>
       <c r="N10">
-        <v>1.242</v>
+        <v>1.3979999999999999</v>
       </c>
       <c r="O10">
-        <v>1.1919999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -966,46 +966,46 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>9.9794149258375195E-2</v>
+        <v>0.10490507354056947</v>
       </c>
       <c r="D11">
-        <v>0.95423841081455352</v>
+        <v>0.96983489944470869</v>
       </c>
       <c r="E11">
-        <v>9.0069999999999997</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F11">
-        <v>117.74299999999999</v>
+        <v>118.357</v>
       </c>
       <c r="G11">
-        <v>9.1980000000000004</v>
+        <v>9.52</v>
       </c>
       <c r="H11">
-        <v>0.89600000000000002</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="I11">
-        <v>0.84599999999999997</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="J11">
-        <v>0.1119641294838145</v>
+        <v>9.5953630796150491E-2</v>
       </c>
       <c r="K11">
-        <v>0.95635618043350923</v>
+        <v>0.97952300650445678</v>
       </c>
       <c r="L11">
-        <v>17.742999999999999</v>
+        <v>18.356999999999999</v>
       </c>
       <c r="M11">
-        <v>101.75</v>
+        <v>101.893</v>
       </c>
       <c r="N11">
-        <v>0.94499999999999995</v>
+        <v>1.012</v>
       </c>
       <c r="O11">
-        <v>0.82599999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1013,46 +1013,46 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>0.10182258078297139</v>
+        <v>0.10338917885281453</v>
       </c>
       <c r="D12">
-        <v>0.95673459726019228</v>
+        <v>0.97115470612716626</v>
       </c>
       <c r="E12">
-        <v>9.0459999999999994</v>
+        <v>8.9369999999999994</v>
       </c>
       <c r="F12">
-        <v>118.015</v>
+        <v>118.133</v>
       </c>
       <c r="G12">
-        <v>9.2729999999999997</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="H12">
+        <v>1.4059999999999999</v>
+      </c>
+      <c r="I12">
+        <v>1.212</v>
+      </c>
+      <c r="J12">
+        <v>0.10355850422195412</v>
+      </c>
+      <c r="K12">
+        <v>0.9734359726295212</v>
+      </c>
+      <c r="L12">
+        <v>18.132999999999999</v>
+      </c>
+      <c r="M12">
+        <v>102.60899999999999</v>
+      </c>
+      <c r="N12">
         <v>1.357</v>
       </c>
-      <c r="I12">
-        <v>1.2290000000000001</v>
-      </c>
-      <c r="J12">
-        <v>0.11394472361809048</v>
-      </c>
-      <c r="K12">
-        <v>0.95231783435023476</v>
-      </c>
-      <c r="L12">
-        <v>18.015000000000001</v>
-      </c>
-      <c r="M12">
-        <v>102.52800000000001</v>
-      </c>
-      <c r="N12">
-        <v>1.3109999999999999</v>
-      </c>
       <c r="O12">
-        <v>1.149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1060,46 +1060,46 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>9.8271604100487048E-2</v>
+        <v>0.1048810363800086</v>
       </c>
       <c r="D13">
-        <v>0.95273017722058229</v>
+        <v>0.9707878724022867</v>
       </c>
       <c r="E13">
-        <v>8.9390000000000001</v>
+        <v>8.8620000000000001</v>
       </c>
       <c r="F13">
-        <v>117.41800000000001</v>
+        <v>118.19499999999999</v>
       </c>
       <c r="G13">
-        <v>8.9619999999999997</v>
+        <v>9.343</v>
       </c>
       <c r="H13">
-        <v>2.0910000000000002</v>
+        <v>2.2629999999999999</v>
       </c>
       <c r="I13">
-        <v>1.899</v>
+        <v>1.8029999999999999</v>
       </c>
       <c r="J13">
-        <v>0.10383424408014567</v>
+        <v>9.4081632653061228E-2</v>
       </c>
       <c r="K13">
-        <v>0.9620132912602789</v>
+        <v>0.97208695158635505</v>
       </c>
       <c r="L13">
-        <v>17.417999999999999</v>
+        <v>18.195</v>
       </c>
       <c r="M13">
-        <v>104.11799999999999</v>
+        <v>104.29900000000001</v>
       </c>
       <c r="N13">
-        <v>2.141</v>
+        <v>2.1930000000000001</v>
       </c>
       <c r="O13">
-        <v>1.9139999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.9770000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1107,46 +1107,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.11684873385243365</v>
+        <v>0.1187493744125018</v>
       </c>
       <c r="D14">
-        <v>0.97889724077485019</v>
+        <v>0.99063293554644682</v>
       </c>
       <c r="E14">
-        <v>8.9450000000000003</v>
+        <v>8.9320000000000004</v>
       </c>
       <c r="F14">
-        <v>119.432</v>
+        <v>119.514</v>
       </c>
       <c r="G14">
-        <v>9.8360000000000003</v>
+        <v>9.8610000000000007</v>
       </c>
       <c r="H14">
-        <v>1.4650000000000001</v>
+        <v>1.401</v>
       </c>
       <c r="I14">
-        <v>1.3260000000000001</v>
+        <v>1.264</v>
       </c>
       <c r="J14">
-        <v>0.11846812568666326</v>
+        <v>0.11845653070699542</v>
       </c>
       <c r="K14">
-        <v>0.97891668145926325</v>
+        <v>0.99173743316293084</v>
       </c>
       <c r="L14">
-        <v>19.431999999999999</v>
+        <v>19.513999999999999</v>
       </c>
       <c r="M14">
-        <v>119.432</v>
+        <v>119.514</v>
       </c>
       <c r="N14">
-        <v>1.488</v>
+        <v>1.48</v>
       </c>
       <c r="O14">
-        <v>1.278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1154,46 +1154,46 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.11672225576546388</v>
+        <v>0.11835229069473195</v>
       </c>
       <c r="D15">
-        <v>0.97946848559766309</v>
+        <v>0.990380259028114</v>
       </c>
       <c r="E15">
-        <v>9.0180000000000007</v>
+        <v>8.9890000000000008</v>
       </c>
       <c r="F15">
-        <v>119.477</v>
+        <v>119.717</v>
       </c>
       <c r="G15">
-        <v>9.8729999999999993</v>
+        <v>10.106</v>
       </c>
       <c r="H15">
-        <v>1.036</v>
+        <v>1.0089999999999999</v>
       </c>
       <c r="I15">
-        <v>0.84199999999999997</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="J15">
-        <v>0.11737855946398656</v>
+        <v>0.12565182511030884</v>
       </c>
       <c r="K15">
-        <v>0.97647058823529398</v>
+        <v>0.99297188755020072</v>
       </c>
       <c r="L15">
-        <v>19.477</v>
+        <v>19.716999999999999</v>
       </c>
       <c r="M15">
-        <v>101.958</v>
+        <v>102.027</v>
       </c>
       <c r="N15">
-        <v>1.034</v>
+        <v>1.052</v>
       </c>
       <c r="O15">
-        <v>0.89500000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1201,46 +1201,46 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>0.11476393885224161</v>
+        <v>0.1172832639600488</v>
       </c>
       <c r="D16">
-        <v>0.97736969281543418</v>
+        <v>0.98978331428154076</v>
       </c>
       <c r="E16">
-        <v>8.9749999999999996</v>
+        <v>8.9410000000000007</v>
       </c>
       <c r="F16">
-        <v>119.1</v>
+        <v>119.59</v>
       </c>
       <c r="G16">
-        <v>9.6989999999999998</v>
+        <v>10.023</v>
       </c>
       <c r="H16">
-        <v>1.4530000000000001</v>
+        <v>1.4370000000000001</v>
       </c>
       <c r="I16">
-        <v>1.2849999999999999</v>
+        <v>1.222</v>
       </c>
       <c r="J16">
-        <v>0.11085982070089644</v>
+        <v>0.12828947368421048</v>
       </c>
       <c r="K16">
-        <v>0.98132387706855784</v>
+        <v>0.99145299145299148</v>
       </c>
       <c r="L16">
-        <v>19.100000000000001</v>
+        <v>19.59</v>
       </c>
       <c r="M16">
-        <v>102.755</v>
+        <v>102.79600000000001</v>
       </c>
       <c r="N16">
-        <v>1.4239999999999999</v>
+        <v>1.496</v>
       </c>
       <c r="O16">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.3009999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1248,43 +1248,43 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>0.1152970617201193</v>
+        <v>0.11686205643862188</v>
       </c>
       <c r="D17">
-        <v>0.98095750279100813</v>
+        <v>0.99198553357132169</v>
       </c>
       <c r="E17">
-        <v>9.0670000000000002</v>
+        <v>8.9819999999999993</v>
       </c>
       <c r="F17">
-        <v>119.411</v>
+        <v>119.59399999999999</v>
       </c>
       <c r="G17">
-        <v>9.9450000000000003</v>
+        <v>10.128</v>
       </c>
       <c r="H17">
-        <v>2.31</v>
+        <v>2.4809999999999999</v>
       </c>
       <c r="I17">
-        <v>1.9890000000000001</v>
+        <v>2.0249999999999999</v>
       </c>
       <c r="J17">
-        <v>0.10595872001622798</v>
+        <v>0.11209551059336466</v>
       </c>
       <c r="K17">
-        <v>0.97866840951256517</v>
+        <v>0.99067805984182278</v>
       </c>
       <c r="L17">
-        <v>19.411000000000001</v>
+        <v>19.594000000000001</v>
       </c>
       <c r="M17">
-        <v>104.64400000000001</v>
+        <v>104.642</v>
       </c>
       <c r="N17">
-        <v>2.3149999999999999</v>
+        <v>2.3969999999999998</v>
       </c>
       <c r="O17">
-        <v>2.04</v>
+        <v>2.1219999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1293,29 +1293,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABAAA0E-0C2F-4E86-914C-4B448C075C53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9900C4E7-A114-4946-BF56-78F558820E04}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1356,7 +1355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>22.981961046756272</v>
       </c>
